--- a/Backend/data/Datos_Dummy_Personas.xlsx
+++ b/Backend/data/Datos_Dummy_Personas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ProyectoConsultasEnLinea\Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ProyectoConsultasEnLinea\Backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF944569-E17B-4DD2-965B-B8F5B3184660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9DC259-1525-4C6B-B6A6-CDE84592DDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8355" yWindow="1500" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>Ciudad</t>
   </si>
   <si>
-    <t>Departsmento</t>
-  </si>
-  <si>
     <t>Barrio</t>
   </si>
   <si>
@@ -730,6 +727,9 @@
   </si>
   <si>
     <t>José Martínez</t>
+  </si>
+  <si>
+    <t>Departamento</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,24 +1133,24 @@
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1010313426</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>45292</v>
@@ -1162,3831 +1162,3831 @@
         <v>45292</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="1">
         <v>45658</v>
       </c>
       <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
         <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>1019286440</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>30236</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1015908159</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>23672</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>1014807579</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>69514</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>1006198955</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>17311</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" t="s">
         <v>23</v>
-      </c>
-      <c r="P6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>1010130699</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>84707</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" t="s">
         <v>32</v>
-      </c>
-      <c r="M7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>1001054556</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>69627</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>1002336359</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>72416</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>1018931115</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>50145</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>1001871628</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>41868</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>1005152714</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>94513</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>1009646610</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <v>92072</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>1011344146</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>11876</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" t="s">
         <v>23</v>
-      </c>
-      <c r="P14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>1015082112</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15">
         <v>77274</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>1011598470</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>50266</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>1001989475</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>38128</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>1011337255</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>82525</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" t="s">
         <v>23</v>
-      </c>
-      <c r="P18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>1003668582</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19">
         <v>79438</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" t="s">
         <v>32</v>
-      </c>
-      <c r="M19" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>1002491724</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20">
         <v>56358</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>1006564368</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21">
         <v>50372</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>1017820500</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>93283</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O22" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" t="s">
         <v>23</v>
-      </c>
-      <c r="P22" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>1014791576</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23">
         <v>34376</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>1015800718</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24">
         <v>56762</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>1007862540</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25">
         <v>35410</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>1010657753</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26">
         <v>80157</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O26" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" t="s">
         <v>23</v>
-      </c>
-      <c r="P26" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>1001806711</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27">
         <v>54234</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>1003047161</v>
       </c>
       <c r="C28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28">
         <v>16253</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>1009335769</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29">
         <v>17724</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
         <v>1015339817</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30">
         <v>28789</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P30" t="s">
         <v>23</v>
-      </c>
-      <c r="P30" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>1004254762</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>87776</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" t="s">
+        <v>22</v>
+      </c>
+      <c r="P31" t="s">
         <v>32</v>
-      </c>
-      <c r="M31" t="s">
-        <v>64</v>
-      </c>
-      <c r="N31" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>1018498209</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32">
         <v>63676</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33">
         <v>1000399805</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33">
         <v>11536</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34">
         <v>1001967813</v>
       </c>
       <c r="C34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34">
         <v>19418</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O34" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" t="s">
         <v>23</v>
-      </c>
-      <c r="P34" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35">
         <v>1013476339</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35">
         <v>52954</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36">
         <v>1012620550</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36">
         <v>87061</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>1004550636</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37">
         <v>62307</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>1012501769</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38">
         <v>97382</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O38" t="s">
+        <v>22</v>
+      </c>
+      <c r="P38" t="s">
         <v>23</v>
-      </c>
-      <c r="P38" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>1013618192</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39">
         <v>27751</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>1015520365</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40">
         <v>82431</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>1015995165</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41">
         <v>10797</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42">
         <v>1006351265</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42">
         <v>90600</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O42" t="s">
+        <v>22</v>
+      </c>
+      <c r="P42" t="s">
         <v>23</v>
-      </c>
-      <c r="P42" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>1009572899</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43">
         <v>98168</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L43" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" t="s">
+        <v>75</v>
+      </c>
+      <c r="N43" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" t="s">
+        <v>22</v>
+      </c>
+      <c r="P43" t="s">
         <v>32</v>
-      </c>
-      <c r="M43" t="s">
-        <v>76</v>
-      </c>
-      <c r="N43" t="s">
-        <v>22</v>
-      </c>
-      <c r="O43" t="s">
-        <v>23</v>
-      </c>
-      <c r="P43" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44">
         <v>1001677267</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44">
         <v>93744</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45">
         <v>1004902741</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45">
         <v>30084</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46">
         <v>1009811229</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46">
         <v>99315</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O46" t="s">
+        <v>22</v>
+      </c>
+      <c r="P46" t="s">
         <v>23</v>
-      </c>
-      <c r="P46" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>1002198483</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47">
         <v>98330</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48">
         <v>1015723694</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48">
         <v>96928</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49">
         <v>1011130105</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49">
         <v>62074</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50">
         <v>1018394885</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50">
         <v>46991</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O50" t="s">
+        <v>22</v>
+      </c>
+      <c r="P50" t="s">
         <v>23</v>
-      </c>
-      <c r="P50" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>1013210379</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51">
         <v>52073</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>1004434378</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F52">
         <v>21155</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>10858671</v>
       </c>
       <c r="C53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F53">
         <v>91561</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>81929352</v>
       </c>
       <c r="C54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54">
         <v>43409</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O54" t="s">
+        <v>22</v>
+      </c>
+      <c r="P54" t="s">
         <v>23</v>
-      </c>
-      <c r="P54" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55">
         <v>13511636</v>
       </c>
       <c r="C55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F55">
         <v>31640</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L55" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" t="s">
+        <v>87</v>
+      </c>
+      <c r="N55" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" t="s">
+        <v>22</v>
+      </c>
+      <c r="P55" t="s">
         <v>32</v>
-      </c>
-      <c r="M55" t="s">
-        <v>88</v>
-      </c>
-      <c r="N55" t="s">
-        <v>22</v>
-      </c>
-      <c r="O55" t="s">
-        <v>23</v>
-      </c>
-      <c r="P55" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56">
         <v>71962254</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56">
         <v>49495</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>62584108</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57">
         <v>35731</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58">
         <v>16287412</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58">
         <v>59006</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O58" t="s">
+        <v>22</v>
+      </c>
+      <c r="P58" t="s">
         <v>23</v>
-      </c>
-      <c r="P58" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59">
         <v>52525711</v>
       </c>
       <c r="C59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F59">
         <v>95306</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60">
         <v>43364990</v>
       </c>
       <c r="C60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60">
         <v>20886</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61">
         <v>94098256</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F61">
         <v>93905</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62">
         <v>85845022</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F62">
         <v>73346</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O62" t="s">
+        <v>22</v>
+      </c>
+      <c r="P62" t="s">
         <v>23</v>
-      </c>
-      <c r="P62" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63">
         <v>63936040</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F63">
         <v>56588</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64">
         <v>38146558</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F64">
         <v>32093</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65">
         <v>53132338</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F65">
         <v>14249</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66">
         <v>85372839</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66">
         <v>87333</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O66" t="s">
+        <v>22</v>
+      </c>
+      <c r="P66" t="s">
         <v>23</v>
-      </c>
-      <c r="P66" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B67">
         <v>26359162</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F67">
         <v>36417</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L67" t="s">
+        <v>31</v>
+      </c>
+      <c r="M67" t="s">
+        <v>99</v>
+      </c>
+      <c r="N67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" t="s">
+        <v>22</v>
+      </c>
+      <c r="P67" t="s">
         <v>32</v>
-      </c>
-      <c r="M67" t="s">
-        <v>100</v>
-      </c>
-      <c r="N67" t="s">
-        <v>22</v>
-      </c>
-      <c r="O67" t="s">
-        <v>23</v>
-      </c>
-      <c r="P67" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68">
         <v>58799823</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F68">
         <v>32539</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69">
         <v>64887067</v>
       </c>
       <c r="C69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69">
         <v>16959</v>
       </c>
       <c r="H69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B70">
         <v>78973072</v>
       </c>
       <c r="C70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F70">
         <v>15536</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O70" t="s">
+        <v>22</v>
+      </c>
+      <c r="P70" t="s">
         <v>23</v>
-      </c>
-      <c r="P70" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71">
         <v>45656811</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F71">
         <v>57955</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B72">
         <v>33425363</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F72">
         <v>92308</v>
       </c>
       <c r="H72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B73">
         <v>24874384</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F73">
         <v>39369</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74">
         <v>60546408</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F74">
         <v>39340</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O74" t="s">
+        <v>22</v>
+      </c>
+      <c r="P74" t="s">
         <v>23</v>
-      </c>
-      <c r="P74" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75">
         <v>90849963</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F75">
         <v>46111</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76">
         <v>74906285</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F76">
         <v>82963</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B77">
         <v>41803761</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F77">
         <v>41205</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78">
         <v>85687659</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F78">
         <v>45620</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O78" t="s">
+        <v>22</v>
+      </c>
+      <c r="P78" t="s">
         <v>23</v>
-      </c>
-      <c r="P78" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79">
         <v>23725536</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F79">
         <v>18717</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L79" t="s">
+        <v>31</v>
+      </c>
+      <c r="M79" t="s">
+        <v>111</v>
+      </c>
+      <c r="N79" t="s">
+        <v>21</v>
+      </c>
+      <c r="O79" t="s">
+        <v>22</v>
+      </c>
+      <c r="P79" t="s">
         <v>32</v>
-      </c>
-      <c r="M79" t="s">
-        <v>112</v>
-      </c>
-      <c r="N79" t="s">
-        <v>22</v>
-      </c>
-      <c r="O79" t="s">
-        <v>23</v>
-      </c>
-      <c r="P79" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80">
         <v>47359138</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F80">
         <v>22388</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B81">
         <v>19256266</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F81">
         <v>32687</v>
       </c>
       <c r="H81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B82">
         <v>37036474</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F82">
         <v>82855</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O82" t="s">
+        <v>22</v>
+      </c>
+      <c r="P82" t="s">
         <v>23</v>
-      </c>
-      <c r="P82" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B83">
         <v>43717013</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F83">
         <v>10884</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84">
         <v>66618017</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F84">
         <v>88329</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B85">
         <v>11457658</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F85">
         <v>43511</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B86">
         <v>58979416</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F86">
         <v>31732</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O86" t="s">
+        <v>22</v>
+      </c>
+      <c r="P86" t="s">
         <v>23</v>
-      </c>
-      <c r="P86" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87">
         <v>18145221</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F87">
         <v>12857</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B88">
         <v>46613732</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F88">
         <v>81346</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B89">
         <v>34753290</v>
       </c>
       <c r="C89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F89">
         <v>40591</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B90">
         <v>39632398</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F90">
         <v>50729</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O90" t="s">
+        <v>22</v>
+      </c>
+      <c r="P90" t="s">
         <v>23</v>
-      </c>
-      <c r="P90" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B91">
         <v>23991314</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F91">
         <v>60040</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L91" t="s">
+        <v>31</v>
+      </c>
+      <c r="M91" t="s">
+        <v>123</v>
+      </c>
+      <c r="N91" t="s">
+        <v>21</v>
+      </c>
+      <c r="O91" t="s">
+        <v>22</v>
+      </c>
+      <c r="P91" t="s">
         <v>32</v>
-      </c>
-      <c r="M91" t="s">
-        <v>124</v>
-      </c>
-      <c r="N91" t="s">
-        <v>22</v>
-      </c>
-      <c r="O91" t="s">
-        <v>23</v>
-      </c>
-      <c r="P91" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92">
         <v>93096245</v>
       </c>
       <c r="C92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F92">
         <v>97810</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B93">
         <v>79863461</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F93">
         <v>94490</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B94">
         <v>31951434</v>
       </c>
       <c r="C94" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F94">
         <v>28930</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O94" t="s">
+        <v>22</v>
+      </c>
+      <c r="P94" t="s">
         <v>23</v>
-      </c>
-      <c r="P94" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B95">
         <v>43164828</v>
       </c>
       <c r="C95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F95">
         <v>31181</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B96">
         <v>83758565</v>
       </c>
       <c r="C96" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F96">
         <v>84217</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B97">
         <v>63911115</v>
       </c>
       <c r="C97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F97">
         <v>30893</v>
       </c>
       <c r="H97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B98">
         <v>73223226</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F98">
         <v>52866</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O98" t="s">
+        <v>22</v>
+      </c>
+      <c r="P98" t="s">
         <v>23</v>
-      </c>
-      <c r="P98" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B99">
         <v>70103795</v>
       </c>
       <c r="C99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F99">
         <v>75202</v>
       </c>
       <c r="H99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B100">
         <v>72901337</v>
       </c>
       <c r="C100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F100">
         <v>13813</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B101">
         <v>14953208</v>
       </c>
       <c r="C101" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F101">
         <v>29450</v>
       </c>
       <c r="H101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B102">
         <v>37769834</v>
       </c>
       <c r="C102" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F102">
         <v>34645</v>
       </c>
       <c r="H102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M102" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O102" t="s">
+        <v>22</v>
+      </c>
+      <c r="P102" t="s">
         <v>23</v>
-      </c>
-      <c r="P102" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/data/Datos_Dummy_Personas.xlsx
+++ b/Backend/data/Datos_Dummy_Personas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ProyectoConsultasEnLinea\Backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9DC259-1525-4C6B-B6A6-CDE84592DDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D101D66-3511-4FD4-9C6A-AA33BDBAB731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="1500" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>1010313426</v>
+        <v>1234567890</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>

--- a/Backend/data/Datos_Dummy_Personas.xlsx
+++ b/Backend/data/Datos_Dummy_Personas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ProyectoConsultasEnLinea\Backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D101D66-3511-4FD4-9C6A-AA33BDBAB731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F593513-60CF-495A-8AA7-9F2ACF6F8AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1063,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,6 +1202,9 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
+      <c r="E3" s="1">
+        <v>44970</v>
+      </c>
       <c r="F3">
         <v>30236</v>
       </c>
@@ -1210,6 +1213,9 @@
       </c>
       <c r="I3" t="s">
         <v>16</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45834</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
@@ -1240,6 +1246,9 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="1">
+        <v>44878</v>
+      </c>
       <c r="F4">
         <v>23672</v>
       </c>
@@ -1248,6 +1257,9 @@
       </c>
       <c r="I4" t="s">
         <v>16</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45747</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
@@ -1278,6 +1290,9 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
+      <c r="E5" s="1">
+        <v>44943</v>
+      </c>
       <c r="F5">
         <v>69514</v>
       </c>
@@ -1286,6 +1301,9 @@
       </c>
       <c r="I5" t="s">
         <v>16</v>
+      </c>
+      <c r="K5" s="1">
+        <v>45692</v>
       </c>
       <c r="L5" t="s">
         <v>19</v>
@@ -1316,6 +1334,9 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="1">
+        <v>45044</v>
+      </c>
       <c r="F6">
         <v>17311</v>
       </c>
@@ -1324,6 +1345,9 @@
       </c>
       <c r="I6" t="s">
         <v>16</v>
+      </c>
+      <c r="K6" s="1">
+        <v>45959</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
@@ -1354,6 +1378,9 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
+      <c r="E7" s="1">
+        <v>44891</v>
+      </c>
       <c r="F7">
         <v>84707</v>
       </c>
@@ -1362,6 +1389,9 @@
       </c>
       <c r="I7" t="s">
         <v>16</v>
+      </c>
+      <c r="K7" s="1">
+        <v>45733</v>
       </c>
       <c r="L7" t="s">
         <v>31</v>
@@ -1392,6 +1422,9 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
+      <c r="E8" s="1">
+        <v>45201</v>
+      </c>
       <c r="F8">
         <v>69627</v>
       </c>
@@ -1400,6 +1433,9 @@
       </c>
       <c r="I8" t="s">
         <v>16</v>
+      </c>
+      <c r="K8" s="1">
+        <v>45818</v>
       </c>
       <c r="L8" t="s">
         <v>19</v>
@@ -1430,6 +1466,9 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
+      <c r="E9" s="1">
+        <v>45214</v>
+      </c>
       <c r="F9">
         <v>72416</v>
       </c>
@@ -1438,6 +1477,9 @@
       </c>
       <c r="I9" t="s">
         <v>16</v>
+      </c>
+      <c r="K9" s="1">
+        <v>45911</v>
       </c>
       <c r="L9" t="s">
         <v>19</v>
@@ -1468,6 +1510,9 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
+      <c r="E10" s="1">
+        <v>45259</v>
+      </c>
       <c r="F10">
         <v>50145</v>
       </c>
@@ -1476,6 +1521,9 @@
       </c>
       <c r="I10" t="s">
         <v>16</v>
+      </c>
+      <c r="K10" s="1">
+        <v>45802</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
@@ -1506,6 +1554,9 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
+      <c r="E11" s="1">
+        <v>44591</v>
+      </c>
       <c r="F11">
         <v>41868</v>
       </c>
@@ -1514,6 +1565,9 @@
       </c>
       <c r="I11" t="s">
         <v>16</v>
+      </c>
+      <c r="K11" s="1">
+        <v>45748</v>
       </c>
       <c r="L11" t="s">
         <v>19</v>
@@ -1544,6 +1598,9 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
+      <c r="E12" s="1">
+        <v>44835</v>
+      </c>
       <c r="F12">
         <v>94513</v>
       </c>
@@ -1552,6 +1609,9 @@
       </c>
       <c r="I12" t="s">
         <v>16</v>
+      </c>
+      <c r="K12" s="1">
+        <v>45841</v>
       </c>
       <c r="L12" t="s">
         <v>19</v>
@@ -1582,6 +1642,9 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
+      <c r="E13" s="1">
+        <v>44860</v>
+      </c>
       <c r="F13">
         <v>92072</v>
       </c>
@@ -1590,6 +1653,9 @@
       </c>
       <c r="I13" t="s">
         <v>16</v>
+      </c>
+      <c r="K13" s="1">
+        <v>45789</v>
       </c>
       <c r="L13" t="s">
         <v>31</v>
@@ -1620,6 +1686,9 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
+      <c r="E14" s="1">
+        <v>44701</v>
+      </c>
       <c r="F14">
         <v>11876</v>
       </c>
@@ -1628,6 +1697,9 @@
       </c>
       <c r="I14" t="s">
         <v>16</v>
+      </c>
+      <c r="K14" s="1">
+        <v>45689</v>
       </c>
       <c r="L14" t="s">
         <v>19</v>
@@ -1658,6 +1730,9 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
+      <c r="E15" s="1">
+        <v>45053</v>
+      </c>
       <c r="F15">
         <v>77274</v>
       </c>
@@ -1666,6 +1741,9 @@
       </c>
       <c r="I15" t="s">
         <v>16</v>
+      </c>
+      <c r="K15" s="1">
+        <v>45888</v>
       </c>
       <c r="L15" t="s">
         <v>19</v>
@@ -1696,6 +1774,9 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
+      <c r="E16" s="1">
+        <v>45123</v>
+      </c>
       <c r="F16">
         <v>50266</v>
       </c>
@@ -1704,6 +1785,9 @@
       </c>
       <c r="I16" t="s">
         <v>16</v>
+      </c>
+      <c r="K16" s="1">
+        <v>45829</v>
       </c>
       <c r="L16" t="s">
         <v>19</v>
@@ -1734,6 +1818,9 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
+      <c r="E17" s="1">
+        <v>44726</v>
+      </c>
       <c r="F17">
         <v>38128</v>
       </c>
@@ -1742,6 +1829,9 @@
       </c>
       <c r="I17" t="s">
         <v>16</v>
+      </c>
+      <c r="K17" s="1">
+        <v>45712</v>
       </c>
       <c r="L17" t="s">
         <v>19</v>
@@ -1772,6 +1862,9 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
+      <c r="E18" s="1">
+        <v>44916</v>
+      </c>
       <c r="F18">
         <v>82525</v>
       </c>
@@ -1780,6 +1873,9 @@
       </c>
       <c r="I18" t="s">
         <v>16</v>
+      </c>
+      <c r="K18" s="1">
+        <v>45725</v>
       </c>
       <c r="L18" t="s">
         <v>19</v>
@@ -1810,6 +1906,9 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
+      <c r="E19" s="1">
+        <v>45023</v>
+      </c>
       <c r="F19">
         <v>79438</v>
       </c>
@@ -1818,6 +1917,9 @@
       </c>
       <c r="I19" t="s">
         <v>16</v>
+      </c>
+      <c r="K19" s="1">
+        <v>45820</v>
       </c>
       <c r="L19" t="s">
         <v>31</v>
@@ -1848,6 +1950,9 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
+      <c r="E20" s="1">
+        <v>44936</v>
+      </c>
       <c r="F20">
         <v>56358</v>
       </c>
@@ -1856,6 +1961,9 @@
       </c>
       <c r="I20" t="s">
         <v>16</v>
+      </c>
+      <c r="K20" s="1">
+        <v>45905</v>
       </c>
       <c r="L20" t="s">
         <v>19</v>
@@ -1886,6 +1994,9 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
+      <c r="E21" s="1">
+        <v>44727</v>
+      </c>
       <c r="F21">
         <v>50372</v>
       </c>
@@ -1894,6 +2005,9 @@
       </c>
       <c r="I21" t="s">
         <v>16</v>
+      </c>
+      <c r="K21" s="1">
+        <v>45673</v>
       </c>
       <c r="L21" t="s">
         <v>19</v>
@@ -1924,6 +2038,9 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
+      <c r="E22" s="1">
+        <v>44759</v>
+      </c>
       <c r="F22">
         <v>93283</v>
       </c>
@@ -1932,6 +2049,9 @@
       </c>
       <c r="I22" t="s">
         <v>16</v>
+      </c>
+      <c r="K22" s="1">
+        <v>45702</v>
       </c>
       <c r="L22" t="s">
         <v>19</v>
@@ -1962,6 +2082,9 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
+      <c r="E23" s="1">
+        <v>45255</v>
+      </c>
       <c r="F23">
         <v>34376</v>
       </c>
@@ -1970,6 +2093,9 @@
       </c>
       <c r="I23" t="s">
         <v>16</v>
+      </c>
+      <c r="K23" s="1">
+        <v>45930</v>
       </c>
       <c r="L23" t="s">
         <v>19</v>
@@ -2000,6 +2126,9 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
+      <c r="E24" s="1">
+        <v>45220</v>
+      </c>
       <c r="F24">
         <v>56762</v>
       </c>
@@ -2008,6 +2137,9 @@
       </c>
       <c r="I24" t="s">
         <v>16</v>
+      </c>
+      <c r="K24" s="1">
+        <v>45859</v>
       </c>
       <c r="L24" t="s">
         <v>19</v>
@@ -2038,6 +2170,9 @@
       <c r="D25" t="s">
         <v>16</v>
       </c>
+      <c r="E25" s="1">
+        <v>45089</v>
+      </c>
       <c r="F25">
         <v>35410</v>
       </c>
@@ -2046,6 +2181,9 @@
       </c>
       <c r="I25" t="s">
         <v>16</v>
+      </c>
+      <c r="K25" s="1">
+        <v>45819</v>
       </c>
       <c r="L25" t="s">
         <v>31</v>
@@ -2076,6 +2214,9 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
+      <c r="E26" s="1">
+        <v>45208</v>
+      </c>
       <c r="F26">
         <v>80157</v>
       </c>
@@ -2084,6 +2225,9 @@
       </c>
       <c r="I26" t="s">
         <v>16</v>
+      </c>
+      <c r="K26" s="1">
+        <v>45754</v>
       </c>
       <c r="L26" t="s">
         <v>19</v>
@@ -2114,6 +2258,9 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
+      <c r="E27" s="1">
+        <v>44906</v>
+      </c>
       <c r="F27">
         <v>54234</v>
       </c>
@@ -2122,6 +2269,9 @@
       </c>
       <c r="I27" t="s">
         <v>16</v>
+      </c>
+      <c r="K27" s="1">
+        <v>45880</v>
       </c>
       <c r="L27" t="s">
         <v>19</v>
@@ -2152,6 +2302,9 @@
       <c r="D28" t="s">
         <v>16</v>
       </c>
+      <c r="E28" s="1">
+        <v>44721</v>
+      </c>
       <c r="F28">
         <v>16253</v>
       </c>
@@ -2160,6 +2313,9 @@
       </c>
       <c r="I28" t="s">
         <v>16</v>
+      </c>
+      <c r="K28" s="1">
+        <v>45808</v>
       </c>
       <c r="L28" t="s">
         <v>19</v>
@@ -2190,6 +2346,9 @@
       <c r="D29" t="s">
         <v>16</v>
       </c>
+      <c r="E29" s="1">
+        <v>45260</v>
+      </c>
       <c r="F29">
         <v>17724</v>
       </c>
@@ -2198,6 +2357,9 @@
       </c>
       <c r="I29" t="s">
         <v>16</v>
+      </c>
+      <c r="K29" s="1">
+        <v>45796</v>
       </c>
       <c r="L29" t="s">
         <v>19</v>
@@ -2228,6 +2390,9 @@
       <c r="D30" t="s">
         <v>16</v>
       </c>
+      <c r="E30" s="1">
+        <v>44614</v>
+      </c>
       <c r="F30">
         <v>28789</v>
       </c>
@@ -2236,6 +2401,9 @@
       </c>
       <c r="I30" t="s">
         <v>16</v>
+      </c>
+      <c r="K30" s="1">
+        <v>45713</v>
       </c>
       <c r="L30" t="s">
         <v>19</v>
@@ -2266,6 +2434,9 @@
       <c r="D31" t="s">
         <v>16</v>
       </c>
+      <c r="E31" s="1">
+        <v>44681</v>
+      </c>
       <c r="F31">
         <v>87776</v>
       </c>
@@ -2274,6 +2445,9 @@
       </c>
       <c r="I31" t="s">
         <v>16</v>
+      </c>
+      <c r="K31" s="1">
+        <v>45954</v>
       </c>
       <c r="L31" t="s">
         <v>31</v>
@@ -2304,6 +2478,9 @@
       <c r="D32" t="s">
         <v>16</v>
       </c>
+      <c r="E32" s="1">
+        <v>45251</v>
+      </c>
       <c r="F32">
         <v>63676</v>
       </c>
@@ -2312,6 +2489,9 @@
       </c>
       <c r="I32" t="s">
         <v>16</v>
+      </c>
+      <c r="K32" s="1">
+        <v>45923</v>
       </c>
       <c r="L32" t="s">
         <v>19</v>
@@ -2342,6 +2522,9 @@
       <c r="D33" t="s">
         <v>16</v>
       </c>
+      <c r="E33" s="1">
+        <v>45119</v>
+      </c>
       <c r="F33">
         <v>11536</v>
       </c>
@@ -2350,6 +2533,9 @@
       </c>
       <c r="I33" t="s">
         <v>16</v>
+      </c>
+      <c r="K33" s="1">
+        <v>45705</v>
       </c>
       <c r="L33" t="s">
         <v>19</v>
@@ -2380,6 +2566,9 @@
       <c r="D34" t="s">
         <v>16</v>
       </c>
+      <c r="E34" s="1">
+        <v>44756</v>
+      </c>
       <c r="F34">
         <v>19418</v>
       </c>
@@ -2388,6 +2577,9 @@
       </c>
       <c r="I34" t="s">
         <v>16</v>
+      </c>
+      <c r="K34" s="1">
+        <v>45970</v>
       </c>
       <c r="L34" t="s">
         <v>19</v>
@@ -2418,6 +2610,9 @@
       <c r="D35" t="s">
         <v>16</v>
       </c>
+      <c r="E35" s="1">
+        <v>45132</v>
+      </c>
       <c r="F35">
         <v>52954</v>
       </c>
@@ -2426,6 +2621,9 @@
       </c>
       <c r="I35" t="s">
         <v>16</v>
+      </c>
+      <c r="K35" s="1">
+        <v>45800</v>
       </c>
       <c r="L35" t="s">
         <v>19</v>
@@ -2456,6 +2654,9 @@
       <c r="D36" t="s">
         <v>16</v>
       </c>
+      <c r="E36" s="1">
+        <v>44645</v>
+      </c>
       <c r="F36">
         <v>87061</v>
       </c>
@@ -2464,6 +2665,9 @@
       </c>
       <c r="I36" t="s">
         <v>16</v>
+      </c>
+      <c r="K36" s="1">
+        <v>45867</v>
       </c>
       <c r="L36" t="s">
         <v>19</v>
@@ -2494,6 +2698,9 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
+      <c r="E37" s="1">
+        <v>44835</v>
+      </c>
       <c r="F37">
         <v>62307</v>
       </c>
@@ -2502,6 +2709,9 @@
       </c>
       <c r="I37" t="s">
         <v>16</v>
+      </c>
+      <c r="K37" s="1">
+        <v>45711</v>
       </c>
       <c r="L37" t="s">
         <v>31</v>
@@ -2532,6 +2742,9 @@
       <c r="D38" t="s">
         <v>16</v>
       </c>
+      <c r="E38" s="1">
+        <v>45225</v>
+      </c>
       <c r="F38">
         <v>97382</v>
       </c>
@@ -2540,6 +2753,9 @@
       </c>
       <c r="I38" t="s">
         <v>16</v>
+      </c>
+      <c r="K38" s="1">
+        <v>45690</v>
       </c>
       <c r="L38" t="s">
         <v>19</v>
@@ -2570,6 +2786,9 @@
       <c r="D39" t="s">
         <v>16</v>
       </c>
+      <c r="E39" s="1">
+        <v>45116</v>
+      </c>
       <c r="F39">
         <v>27751</v>
       </c>
@@ -2578,6 +2797,9 @@
       </c>
       <c r="I39" t="s">
         <v>16</v>
+      </c>
+      <c r="K39" s="1">
+        <v>45917</v>
       </c>
       <c r="L39" t="s">
         <v>19</v>
@@ -2608,6 +2830,9 @@
       <c r="D40" t="s">
         <v>16</v>
       </c>
+      <c r="E40" s="1">
+        <v>44639</v>
+      </c>
       <c r="F40">
         <v>82431</v>
       </c>
@@ -2616,6 +2841,9 @@
       </c>
       <c r="I40" t="s">
         <v>16</v>
+      </c>
+      <c r="K40" s="1">
+        <v>45894</v>
       </c>
       <c r="L40" t="s">
         <v>19</v>
@@ -2646,6 +2874,9 @@
       <c r="D41" t="s">
         <v>16</v>
       </c>
+      <c r="E41" s="1">
+        <v>45209</v>
+      </c>
       <c r="F41">
         <v>10797</v>
       </c>
@@ -2654,6 +2885,9 @@
       </c>
       <c r="I41" t="s">
         <v>16</v>
+      </c>
+      <c r="K41" s="1">
+        <v>45908</v>
       </c>
       <c r="L41" t="s">
         <v>19</v>
@@ -2684,6 +2918,9 @@
       <c r="D42" t="s">
         <v>16</v>
       </c>
+      <c r="E42" s="1">
+        <v>44597</v>
+      </c>
       <c r="F42">
         <v>90600</v>
       </c>
@@ -2692,6 +2929,9 @@
       </c>
       <c r="I42" t="s">
         <v>16</v>
+      </c>
+      <c r="K42" s="1">
+        <v>45920</v>
       </c>
       <c r="L42" t="s">
         <v>19</v>
@@ -2722,6 +2962,9 @@
       <c r="D43" t="s">
         <v>16</v>
       </c>
+      <c r="E43" s="1">
+        <v>44929</v>
+      </c>
       <c r="F43">
         <v>98168</v>
       </c>
@@ -2730,6 +2973,9 @@
       </c>
       <c r="I43" t="s">
         <v>16</v>
+      </c>
+      <c r="K43" s="1">
+        <v>45799</v>
       </c>
       <c r="L43" t="s">
         <v>31</v>
@@ -2760,6 +3006,9 @@
       <c r="D44" t="s">
         <v>16</v>
       </c>
+      <c r="E44" s="1">
+        <v>44656</v>
+      </c>
       <c r="F44">
         <v>93744</v>
       </c>
@@ -2768,6 +3017,9 @@
       </c>
       <c r="I44" t="s">
         <v>16</v>
+      </c>
+      <c r="K44" s="1">
+        <v>45729</v>
       </c>
       <c r="L44" t="s">
         <v>19</v>
@@ -2798,6 +3050,9 @@
       <c r="D45" t="s">
         <v>16</v>
       </c>
+      <c r="E45" s="1">
+        <v>44816</v>
+      </c>
       <c r="F45">
         <v>30084</v>
       </c>
@@ -2806,6 +3061,9 @@
       </c>
       <c r="I45" t="s">
         <v>16</v>
+      </c>
+      <c r="K45" s="1">
+        <v>45727</v>
       </c>
       <c r="L45" t="s">
         <v>19</v>
@@ -2836,6 +3094,9 @@
       <c r="D46" t="s">
         <v>16</v>
       </c>
+      <c r="E46" s="1">
+        <v>44719</v>
+      </c>
       <c r="F46">
         <v>99315</v>
       </c>
@@ -2844,6 +3105,9 @@
       </c>
       <c r="I46" t="s">
         <v>16</v>
+      </c>
+      <c r="K46" s="1">
+        <v>46004</v>
       </c>
       <c r="L46" t="s">
         <v>19</v>
@@ -2874,6 +3138,9 @@
       <c r="D47" t="s">
         <v>16</v>
       </c>
+      <c r="E47" s="1">
+        <v>44961</v>
+      </c>
       <c r="F47">
         <v>98330</v>
       </c>
@@ -2882,6 +3149,9 @@
       </c>
       <c r="I47" t="s">
         <v>16</v>
+      </c>
+      <c r="K47" s="1">
+        <v>45924</v>
       </c>
       <c r="L47" t="s">
         <v>19</v>
@@ -2912,6 +3182,9 @@
       <c r="D48" t="s">
         <v>16</v>
       </c>
+      <c r="E48" s="1">
+        <v>44615</v>
+      </c>
       <c r="F48">
         <v>96928</v>
       </c>
@@ -2920,6 +3193,9 @@
       </c>
       <c r="I48" t="s">
         <v>16</v>
+      </c>
+      <c r="K48" s="1">
+        <v>45708</v>
       </c>
       <c r="L48" t="s">
         <v>19</v>
@@ -2950,6 +3226,9 @@
       <c r="D49" t="s">
         <v>16</v>
       </c>
+      <c r="E49" s="1">
+        <v>44697</v>
+      </c>
       <c r="F49">
         <v>62074</v>
       </c>
@@ -2958,6 +3237,9 @@
       </c>
       <c r="I49" t="s">
         <v>16</v>
+      </c>
+      <c r="K49" s="1">
+        <v>45721</v>
       </c>
       <c r="L49" t="s">
         <v>31</v>
@@ -2988,6 +3270,9 @@
       <c r="D50" t="s">
         <v>16</v>
       </c>
+      <c r="E50" s="1">
+        <v>45184</v>
+      </c>
       <c r="F50">
         <v>46991</v>
       </c>
@@ -2996,6 +3281,9 @@
       </c>
       <c r="I50" t="s">
         <v>16</v>
+      </c>
+      <c r="K50" s="1">
+        <v>45852</v>
       </c>
       <c r="L50" t="s">
         <v>19</v>
@@ -3026,6 +3314,9 @@
       <c r="D51" t="s">
         <v>16</v>
       </c>
+      <c r="E51" s="1">
+        <v>44930</v>
+      </c>
       <c r="F51">
         <v>52073</v>
       </c>
@@ -3034,6 +3325,9 @@
       </c>
       <c r="I51" t="s">
         <v>16</v>
+      </c>
+      <c r="K51" s="1">
+        <v>46019</v>
       </c>
       <c r="L51" t="s">
         <v>19</v>
@@ -3064,6 +3358,9 @@
       <c r="D52" t="s">
         <v>16</v>
       </c>
+      <c r="E52" s="1">
+        <v>44772</v>
+      </c>
       <c r="F52">
         <v>21155</v>
       </c>
@@ -3072,6 +3369,9 @@
       </c>
       <c r="I52" t="s">
         <v>16</v>
+      </c>
+      <c r="K52" s="1">
+        <v>45979</v>
       </c>
       <c r="L52" t="s">
         <v>19</v>
@@ -3102,6 +3402,9 @@
       <c r="D53" t="s">
         <v>16</v>
       </c>
+      <c r="E53" s="1">
+        <v>44838</v>
+      </c>
       <c r="F53">
         <v>91561</v>
       </c>
@@ -3110,6 +3413,9 @@
       </c>
       <c r="I53" t="s">
         <v>16</v>
+      </c>
+      <c r="K53" s="1">
+        <v>45858</v>
       </c>
       <c r="L53" t="s">
         <v>19</v>
@@ -3140,6 +3446,9 @@
       <c r="D54" t="s">
         <v>16</v>
       </c>
+      <c r="E54" s="1">
+        <v>44909</v>
+      </c>
       <c r="F54">
         <v>43409</v>
       </c>
@@ -3148,6 +3457,9 @@
       </c>
       <c r="I54" t="s">
         <v>16</v>
+      </c>
+      <c r="K54" s="1">
+        <v>45834</v>
       </c>
       <c r="L54" t="s">
         <v>19</v>
@@ -3178,6 +3490,9 @@
       <c r="D55" t="s">
         <v>16</v>
       </c>
+      <c r="E55" s="1">
+        <v>44862</v>
+      </c>
       <c r="F55">
         <v>31640</v>
       </c>
@@ -3186,6 +3501,9 @@
       </c>
       <c r="I55" t="s">
         <v>16</v>
+      </c>
+      <c r="K55" s="1">
+        <v>45747</v>
       </c>
       <c r="L55" t="s">
         <v>31</v>
@@ -3216,6 +3534,9 @@
       <c r="D56" t="s">
         <v>16</v>
       </c>
+      <c r="E56" s="1">
+        <v>44728</v>
+      </c>
       <c r="F56">
         <v>49495</v>
       </c>
@@ -3224,6 +3545,9 @@
       </c>
       <c r="I56" t="s">
         <v>16</v>
+      </c>
+      <c r="K56" s="1">
+        <v>45692</v>
       </c>
       <c r="L56" t="s">
         <v>19</v>
@@ -3254,6 +3578,9 @@
       <c r="D57" t="s">
         <v>16</v>
       </c>
+      <c r="E57" s="1">
+        <v>45174</v>
+      </c>
       <c r="F57">
         <v>35731</v>
       </c>
@@ -3262,6 +3589,9 @@
       </c>
       <c r="I57" t="s">
         <v>16</v>
+      </c>
+      <c r="K57" s="1">
+        <v>45959</v>
       </c>
       <c r="L57" t="s">
         <v>19</v>
@@ -3292,6 +3622,9 @@
       <c r="D58" t="s">
         <v>16</v>
       </c>
+      <c r="E58" s="1">
+        <v>44588</v>
+      </c>
       <c r="F58">
         <v>59006</v>
       </c>
@@ -3300,6 +3633,9 @@
       </c>
       <c r="I58" t="s">
         <v>16</v>
+      </c>
+      <c r="K58" s="1">
+        <v>45733</v>
       </c>
       <c r="L58" t="s">
         <v>19</v>
@@ -3330,6 +3666,9 @@
       <c r="D59" t="s">
         <v>16</v>
       </c>
+      <c r="E59" s="1">
+        <v>44783</v>
+      </c>
       <c r="F59">
         <v>95306</v>
       </c>
@@ -3338,6 +3677,9 @@
       </c>
       <c r="I59" t="s">
         <v>16</v>
+      </c>
+      <c r="K59" s="1">
+        <v>45818</v>
       </c>
       <c r="L59" t="s">
         <v>19</v>
@@ -3368,6 +3710,9 @@
       <c r="D60" t="s">
         <v>16</v>
       </c>
+      <c r="E60" s="1">
+        <v>44688</v>
+      </c>
       <c r="F60">
         <v>20886</v>
       </c>
@@ -3376,6 +3721,9 @@
       </c>
       <c r="I60" t="s">
         <v>16</v>
+      </c>
+      <c r="K60" s="1">
+        <v>45911</v>
       </c>
       <c r="L60" t="s">
         <v>19</v>
@@ -3406,6 +3754,9 @@
       <c r="D61" t="s">
         <v>16</v>
       </c>
+      <c r="E61" s="1">
+        <v>45169</v>
+      </c>
       <c r="F61">
         <v>93905</v>
       </c>
@@ -3414,6 +3765,9 @@
       </c>
       <c r="I61" t="s">
         <v>16</v>
+      </c>
+      <c r="K61" s="1">
+        <v>45802</v>
       </c>
       <c r="L61" t="s">
         <v>31</v>
@@ -3444,6 +3798,9 @@
       <c r="D62" t="s">
         <v>16</v>
       </c>
+      <c r="E62" s="1">
+        <v>44948</v>
+      </c>
       <c r="F62">
         <v>73346</v>
       </c>
@@ -3452,6 +3809,9 @@
       </c>
       <c r="I62" t="s">
         <v>16</v>
+      </c>
+      <c r="K62" s="1">
+        <v>45748</v>
       </c>
       <c r="L62" t="s">
         <v>19</v>
@@ -3482,6 +3842,9 @@
       <c r="D63" t="s">
         <v>16</v>
       </c>
+      <c r="E63" s="1">
+        <v>45052</v>
+      </c>
       <c r="F63">
         <v>56588</v>
       </c>
@@ -3490,6 +3853,9 @@
       </c>
       <c r="I63" t="s">
         <v>16</v>
+      </c>
+      <c r="K63" s="1">
+        <v>45841</v>
       </c>
       <c r="L63" t="s">
         <v>19</v>
@@ -3520,6 +3886,9 @@
       <c r="D64" t="s">
         <v>16</v>
       </c>
+      <c r="E64" s="1">
+        <v>45176</v>
+      </c>
       <c r="F64">
         <v>32093</v>
       </c>
@@ -3528,6 +3897,9 @@
       </c>
       <c r="I64" t="s">
         <v>16</v>
+      </c>
+      <c r="K64" s="1">
+        <v>45789</v>
       </c>
       <c r="L64" t="s">
         <v>19</v>
@@ -3558,6 +3930,9 @@
       <c r="D65" t="s">
         <v>16</v>
       </c>
+      <c r="E65" s="1">
+        <v>44725</v>
+      </c>
       <c r="F65">
         <v>14249</v>
       </c>
@@ -3566,6 +3941,9 @@
       </c>
       <c r="I65" t="s">
         <v>16</v>
+      </c>
+      <c r="K65" s="1">
+        <v>45689</v>
       </c>
       <c r="L65" t="s">
         <v>19</v>
@@ -3596,6 +3974,9 @@
       <c r="D66" t="s">
         <v>16</v>
       </c>
+      <c r="E66" s="1">
+        <v>44903</v>
+      </c>
       <c r="F66">
         <v>87333</v>
       </c>
@@ -3604,6 +3985,9 @@
       </c>
       <c r="I66" t="s">
         <v>16</v>
+      </c>
+      <c r="K66" s="1">
+        <v>45888</v>
       </c>
       <c r="L66" t="s">
         <v>19</v>
@@ -3634,6 +4018,9 @@
       <c r="D67" t="s">
         <v>16</v>
       </c>
+      <c r="E67" s="1">
+        <v>45180</v>
+      </c>
       <c r="F67">
         <v>36417</v>
       </c>
@@ -3642,6 +4029,9 @@
       </c>
       <c r="I67" t="s">
         <v>16</v>
+      </c>
+      <c r="K67" s="1">
+        <v>45829</v>
       </c>
       <c r="L67" t="s">
         <v>31</v>
@@ -3672,6 +4062,9 @@
       <c r="D68" t="s">
         <v>16</v>
       </c>
+      <c r="E68" s="1">
+        <v>44967</v>
+      </c>
       <c r="F68">
         <v>32539</v>
       </c>
@@ -3680,6 +4073,9 @@
       </c>
       <c r="I68" t="s">
         <v>16</v>
+      </c>
+      <c r="K68" s="1">
+        <v>45712</v>
       </c>
       <c r="L68" t="s">
         <v>19</v>
@@ -3710,6 +4106,9 @@
       <c r="D69" t="s">
         <v>16</v>
       </c>
+      <c r="E69" s="1">
+        <v>44826</v>
+      </c>
       <c r="F69">
         <v>16959</v>
       </c>
@@ -3718,6 +4117,9 @@
       </c>
       <c r="I69" t="s">
         <v>16</v>
+      </c>
+      <c r="K69" s="1">
+        <v>45725</v>
       </c>
       <c r="L69" t="s">
         <v>19</v>
@@ -3748,6 +4150,9 @@
       <c r="D70" t="s">
         <v>16</v>
       </c>
+      <c r="E70" s="1">
+        <v>44770</v>
+      </c>
       <c r="F70">
         <v>15536</v>
       </c>
@@ -3756,6 +4161,9 @@
       </c>
       <c r="I70" t="s">
         <v>16</v>
+      </c>
+      <c r="K70" s="1">
+        <v>45820</v>
       </c>
       <c r="L70" t="s">
         <v>19</v>
@@ -3786,6 +4194,9 @@
       <c r="D71" t="s">
         <v>16</v>
       </c>
+      <c r="E71" s="1">
+        <v>45097</v>
+      </c>
       <c r="F71">
         <v>57955</v>
       </c>
@@ -3794,6 +4205,9 @@
       </c>
       <c r="I71" t="s">
         <v>16</v>
+      </c>
+      <c r="K71" s="1">
+        <v>45905</v>
       </c>
       <c r="L71" t="s">
         <v>19</v>
@@ -3824,6 +4238,9 @@
       <c r="D72" t="s">
         <v>16</v>
       </c>
+      <c r="E72" s="1">
+        <v>45249</v>
+      </c>
       <c r="F72">
         <v>92308</v>
       </c>
@@ -3832,6 +4249,9 @@
       </c>
       <c r="I72" t="s">
         <v>16</v>
+      </c>
+      <c r="K72" s="1">
+        <v>45673</v>
       </c>
       <c r="L72" t="s">
         <v>19</v>
@@ -3862,6 +4282,9 @@
       <c r="D73" t="s">
         <v>16</v>
       </c>
+      <c r="E73" s="1">
+        <v>44828</v>
+      </c>
       <c r="F73">
         <v>39369</v>
       </c>
@@ -3870,6 +4293,9 @@
       </c>
       <c r="I73" t="s">
         <v>16</v>
+      </c>
+      <c r="K73" s="1">
+        <v>45702</v>
       </c>
       <c r="L73" t="s">
         <v>31</v>
@@ -3900,6 +4326,9 @@
       <c r="D74" t="s">
         <v>16</v>
       </c>
+      <c r="E74" s="1">
+        <v>44818</v>
+      </c>
       <c r="F74">
         <v>39340</v>
       </c>
@@ -3908,6 +4337,9 @@
       </c>
       <c r="I74" t="s">
         <v>16</v>
+      </c>
+      <c r="K74" s="1">
+        <v>45930</v>
       </c>
       <c r="L74" t="s">
         <v>19</v>
@@ -3938,6 +4370,9 @@
       <c r="D75" t="s">
         <v>16</v>
       </c>
+      <c r="E75" s="1">
+        <v>44928</v>
+      </c>
       <c r="F75">
         <v>46111</v>
       </c>
@@ -3946,6 +4381,9 @@
       </c>
       <c r="I75" t="s">
         <v>16</v>
+      </c>
+      <c r="K75" s="1">
+        <v>45859</v>
       </c>
       <c r="L75" t="s">
         <v>19</v>
@@ -3976,6 +4414,9 @@
       <c r="D76" t="s">
         <v>16</v>
       </c>
+      <c r="E76" s="1">
+        <v>45170</v>
+      </c>
       <c r="F76">
         <v>82963</v>
       </c>
@@ -3984,6 +4425,9 @@
       </c>
       <c r="I76" t="s">
         <v>16</v>
+      </c>
+      <c r="K76" s="1">
+        <v>45819</v>
       </c>
       <c r="L76" t="s">
         <v>19</v>
@@ -4014,6 +4458,9 @@
       <c r="D77" t="s">
         <v>16</v>
       </c>
+      <c r="E77" s="1">
+        <v>44690</v>
+      </c>
       <c r="F77">
         <v>41205</v>
       </c>
@@ -4022,6 +4469,9 @@
       </c>
       <c r="I77" t="s">
         <v>16</v>
+      </c>
+      <c r="K77" s="1">
+        <v>45754</v>
       </c>
       <c r="L77" t="s">
         <v>19</v>
@@ -4052,6 +4502,9 @@
       <c r="D78" t="s">
         <v>16</v>
       </c>
+      <c r="E78" s="1">
+        <v>45093</v>
+      </c>
       <c r="F78">
         <v>45620</v>
       </c>
@@ -4060,6 +4513,9 @@
       </c>
       <c r="I78" t="s">
         <v>16</v>
+      </c>
+      <c r="K78" s="1">
+        <v>45880</v>
       </c>
       <c r="L78" t="s">
         <v>19</v>
@@ -4090,6 +4546,9 @@
       <c r="D79" t="s">
         <v>16</v>
       </c>
+      <c r="E79" s="1">
+        <v>44969</v>
+      </c>
       <c r="F79">
         <v>18717</v>
       </c>
@@ -4098,6 +4557,9 @@
       </c>
       <c r="I79" t="s">
         <v>16</v>
+      </c>
+      <c r="K79" s="1">
+        <v>45808</v>
       </c>
       <c r="L79" t="s">
         <v>31</v>
@@ -4128,6 +4590,9 @@
       <c r="D80" t="s">
         <v>16</v>
       </c>
+      <c r="E80" s="1">
+        <v>45017</v>
+      </c>
       <c r="F80">
         <v>22388</v>
       </c>
@@ -4136,6 +4601,9 @@
       </c>
       <c r="I80" t="s">
         <v>16</v>
+      </c>
+      <c r="K80" s="1">
+        <v>45796</v>
       </c>
       <c r="L80" t="s">
         <v>19</v>
@@ -4166,6 +4634,9 @@
       <c r="D81" t="s">
         <v>16</v>
       </c>
+      <c r="E81" s="1">
+        <v>44844</v>
+      </c>
       <c r="F81">
         <v>32687</v>
       </c>
@@ -4174,6 +4645,9 @@
       </c>
       <c r="I81" t="s">
         <v>16</v>
+      </c>
+      <c r="K81" s="1">
+        <v>45713</v>
       </c>
       <c r="L81" t="s">
         <v>19</v>
@@ -4204,6 +4678,9 @@
       <c r="D82" t="s">
         <v>16</v>
       </c>
+      <c r="E82" s="1">
+        <v>44728</v>
+      </c>
       <c r="F82">
         <v>82855</v>
       </c>
@@ -4212,6 +4689,9 @@
       </c>
       <c r="I82" t="s">
         <v>16</v>
+      </c>
+      <c r="K82" s="1">
+        <v>45954</v>
       </c>
       <c r="L82" t="s">
         <v>19</v>
@@ -4242,6 +4722,9 @@
       <c r="D83" t="s">
         <v>16</v>
       </c>
+      <c r="E83" s="1">
+        <v>45058</v>
+      </c>
       <c r="F83">
         <v>10884</v>
       </c>
@@ -4250,6 +4733,9 @@
       </c>
       <c r="I83" t="s">
         <v>16</v>
+      </c>
+      <c r="K83" s="1">
+        <v>45923</v>
       </c>
       <c r="L83" t="s">
         <v>19</v>
@@ -4280,6 +4766,9 @@
       <c r="D84" t="s">
         <v>16</v>
       </c>
+      <c r="E84" s="1">
+        <v>44879</v>
+      </c>
       <c r="F84">
         <v>88329</v>
       </c>
@@ -4288,6 +4777,9 @@
       </c>
       <c r="I84" t="s">
         <v>16</v>
+      </c>
+      <c r="K84" s="1">
+        <v>45705</v>
       </c>
       <c r="L84" t="s">
         <v>19</v>
@@ -4318,6 +4810,9 @@
       <c r="D85" t="s">
         <v>16</v>
       </c>
+      <c r="E85" s="1">
+        <v>44795</v>
+      </c>
       <c r="F85">
         <v>43511</v>
       </c>
@@ -4326,6 +4821,9 @@
       </c>
       <c r="I85" t="s">
         <v>16</v>
+      </c>
+      <c r="K85" s="1">
+        <v>45970</v>
       </c>
       <c r="L85" t="s">
         <v>31</v>
@@ -4356,6 +4854,9 @@
       <c r="D86" t="s">
         <v>16</v>
       </c>
+      <c r="E86" s="1">
+        <v>45139</v>
+      </c>
       <c r="F86">
         <v>31732</v>
       </c>
@@ -4364,6 +4865,9 @@
       </c>
       <c r="I86" t="s">
         <v>16</v>
+      </c>
+      <c r="K86" s="1">
+        <v>45800</v>
       </c>
       <c r="L86" t="s">
         <v>19</v>
@@ -4394,6 +4898,9 @@
       <c r="D87" t="s">
         <v>16</v>
       </c>
+      <c r="E87" s="1">
+        <v>45201</v>
+      </c>
       <c r="F87">
         <v>12857</v>
       </c>
@@ -4402,6 +4909,9 @@
       </c>
       <c r="I87" t="s">
         <v>16</v>
+      </c>
+      <c r="K87" s="1">
+        <v>45867</v>
       </c>
       <c r="L87" t="s">
         <v>19</v>
@@ -4432,6 +4942,9 @@
       <c r="D88" t="s">
         <v>16</v>
       </c>
+      <c r="E88" s="1">
+        <v>44932</v>
+      </c>
       <c r="F88">
         <v>81346</v>
       </c>
@@ -4440,6 +4953,9 @@
       </c>
       <c r="I88" t="s">
         <v>16</v>
+      </c>
+      <c r="K88" s="1">
+        <v>45711</v>
       </c>
       <c r="L88" t="s">
         <v>19</v>
@@ -4470,6 +4986,9 @@
       <c r="D89" t="s">
         <v>16</v>
       </c>
+      <c r="E89" s="1">
+        <v>44928</v>
+      </c>
       <c r="F89">
         <v>40591</v>
       </c>
@@ -4478,6 +4997,9 @@
       </c>
       <c r="I89" t="s">
         <v>16</v>
+      </c>
+      <c r="K89" s="1">
+        <v>45690</v>
       </c>
       <c r="L89" t="s">
         <v>19</v>
@@ -4508,6 +5030,9 @@
       <c r="D90" t="s">
         <v>16</v>
       </c>
+      <c r="E90" s="1">
+        <v>45194</v>
+      </c>
       <c r="F90">
         <v>50729</v>
       </c>
@@ -4516,6 +5041,9 @@
       </c>
       <c r="I90" t="s">
         <v>16</v>
+      </c>
+      <c r="K90" s="1">
+        <v>45917</v>
       </c>
       <c r="L90" t="s">
         <v>19</v>
@@ -4546,6 +5074,9 @@
       <c r="D91" t="s">
         <v>16</v>
       </c>
+      <c r="E91" s="1">
+        <v>44810</v>
+      </c>
       <c r="F91">
         <v>60040</v>
       </c>
@@ -4554,6 +5085,9 @@
       </c>
       <c r="I91" t="s">
         <v>16</v>
+      </c>
+      <c r="K91" s="1">
+        <v>45894</v>
       </c>
       <c r="L91" t="s">
         <v>31</v>
@@ -4584,6 +5118,9 @@
       <c r="D92" t="s">
         <v>16</v>
       </c>
+      <c r="E92" s="1">
+        <v>45158</v>
+      </c>
       <c r="F92">
         <v>97810</v>
       </c>
@@ -4592,6 +5129,9 @@
       </c>
       <c r="I92" t="s">
         <v>16</v>
+      </c>
+      <c r="K92" s="1">
+        <v>45908</v>
       </c>
       <c r="L92" t="s">
         <v>19</v>
@@ -4622,6 +5162,9 @@
       <c r="D93" t="s">
         <v>16</v>
       </c>
+      <c r="E93" s="1">
+        <v>44652</v>
+      </c>
       <c r="F93">
         <v>94490</v>
       </c>
@@ -4630,6 +5173,9 @@
       </c>
       <c r="I93" t="s">
         <v>16</v>
+      </c>
+      <c r="K93" s="1">
+        <v>45920</v>
       </c>
       <c r="L93" t="s">
         <v>19</v>
@@ -4660,6 +5206,9 @@
       <c r="D94" t="s">
         <v>16</v>
       </c>
+      <c r="E94" s="1">
+        <v>45110</v>
+      </c>
       <c r="F94">
         <v>28930</v>
       </c>
@@ -4668,6 +5217,9 @@
       </c>
       <c r="I94" t="s">
         <v>16</v>
+      </c>
+      <c r="K94" s="1">
+        <v>45799</v>
       </c>
       <c r="L94" t="s">
         <v>19</v>
@@ -4698,6 +5250,9 @@
       <c r="D95" t="s">
         <v>16</v>
       </c>
+      <c r="E95" s="1">
+        <v>44866</v>
+      </c>
       <c r="F95">
         <v>31181</v>
       </c>
@@ -4706,6 +5261,9 @@
       </c>
       <c r="I95" t="s">
         <v>16</v>
+      </c>
+      <c r="K95" s="1">
+        <v>45729</v>
       </c>
       <c r="L95" t="s">
         <v>19</v>
@@ -4736,6 +5294,9 @@
       <c r="D96" t="s">
         <v>16</v>
       </c>
+      <c r="E96" s="1">
+        <v>44810</v>
+      </c>
       <c r="F96">
         <v>84217</v>
       </c>
@@ -4744,6 +5305,9 @@
       </c>
       <c r="I96" t="s">
         <v>16</v>
+      </c>
+      <c r="K96" s="1">
+        <v>45727</v>
       </c>
       <c r="L96" t="s">
         <v>19</v>
@@ -4774,6 +5338,9 @@
       <c r="D97" t="s">
         <v>16</v>
       </c>
+      <c r="E97" s="1">
+        <v>44673</v>
+      </c>
       <c r="F97">
         <v>30893</v>
       </c>
@@ -4782,6 +5349,9 @@
       </c>
       <c r="I97" t="s">
         <v>16</v>
+      </c>
+      <c r="K97" s="1">
+        <v>46004</v>
       </c>
       <c r="L97" t="s">
         <v>31</v>
@@ -4812,6 +5382,9 @@
       <c r="D98" t="s">
         <v>16</v>
       </c>
+      <c r="E98" s="1">
+        <v>44970</v>
+      </c>
       <c r="F98">
         <v>52866</v>
       </c>
@@ -4820,6 +5393,9 @@
       </c>
       <c r="I98" t="s">
         <v>16</v>
+      </c>
+      <c r="K98" s="1">
+        <v>45924</v>
       </c>
       <c r="L98" t="s">
         <v>19</v>
@@ -4850,6 +5426,9 @@
       <c r="D99" t="s">
         <v>16</v>
       </c>
+      <c r="E99" s="1">
+        <v>44726</v>
+      </c>
       <c r="F99">
         <v>75202</v>
       </c>
@@ -4858,6 +5437,9 @@
       </c>
       <c r="I99" t="s">
         <v>16</v>
+      </c>
+      <c r="K99" s="1">
+        <v>45708</v>
       </c>
       <c r="L99" t="s">
         <v>19</v>
@@ -4888,6 +5470,9 @@
       <c r="D100" t="s">
         <v>16</v>
       </c>
+      <c r="E100" s="1">
+        <v>44850</v>
+      </c>
       <c r="F100">
         <v>13813</v>
       </c>
@@ -4896,6 +5481,9 @@
       </c>
       <c r="I100" t="s">
         <v>16</v>
+      </c>
+      <c r="K100" s="1">
+        <v>45721</v>
       </c>
       <c r="L100" t="s">
         <v>19</v>
@@ -4926,6 +5514,9 @@
       <c r="D101" t="s">
         <v>16</v>
       </c>
+      <c r="E101" s="1">
+        <v>44705</v>
+      </c>
       <c r="F101">
         <v>29450</v>
       </c>
@@ -4934,6 +5525,9 @@
       </c>
       <c r="I101" t="s">
         <v>16</v>
+      </c>
+      <c r="K101" s="1">
+        <v>45852</v>
       </c>
       <c r="L101" t="s">
         <v>19</v>
@@ -4964,6 +5558,9 @@
       <c r="D102" t="s">
         <v>16</v>
       </c>
+      <c r="E102" s="1">
+        <v>44931</v>
+      </c>
       <c r="F102">
         <v>34645</v>
       </c>
@@ -4973,6 +5570,9 @@
       <c r="I102" t="s">
         <v>16</v>
       </c>
+      <c r="K102" s="1">
+        <v>46019</v>
+      </c>
       <c r="L102" t="s">
         <v>19</v>
       </c>
@@ -4988,6 +5588,13 @@
       <c r="P102" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K104" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
